--- a/specs/data-dicionnary.xlsx
+++ b/specs/data-dicionnary.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\profile-browser\specs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\profile_browser\specs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E27B21-7848-40AC-9548-2050761554A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE97B902-A5FB-42D2-BD23-1B1E2A3F3F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FC6328BD-CA68-40E3-8662-E0105E20B0E1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
   <si>
     <t>name</t>
   </si>
@@ -133,6 +133,36 @@
   </si>
   <si>
     <t>Biographie associé au profil</t>
+  </si>
+  <si>
+    <t>user_name</t>
+  </si>
+  <si>
+    <t>Nom affiché de l’utilisateur</t>
+  </si>
+  <si>
+    <t>profile_img_path</t>
+  </si>
+  <si>
+    <t>chemin d’accès au fichier image du profile</t>
+  </si>
+  <si>
+    <t>available</t>
+  </si>
+  <si>
+    <t>profile_creator</t>
+  </si>
+  <si>
+    <t>Profile_creator</t>
+  </si>
+  <si>
+    <t>Table pivot</t>
+  </si>
+  <si>
+    <t>Enum</t>
+  </si>
+  <si>
+    <t>Lien entre profile et créateur du profile</t>
   </si>
 </sst>
 </file>
@@ -487,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B489694F-A0FE-4F5A-A14F-BDAA6D9CDE66}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,6 +680,68 @@
         <v>18</v>
       </c>
     </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
